--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-2.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-2.xlsx
@@ -115,13 +115,13 @@
     <t>Receptacion. Art. 456 Bis A.</t>
   </si>
   <si>
+    <t>Lesiones Graves.</t>
+  </si>
+  <si>
     <t>Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
   </si>
   <si>
     <t>Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
-  </si>
-  <si>
-    <t>Lesiones Graves.</t>
   </si>
   <si>
     <t>Estafas Y Otras Defraudaciones Contra Particulares</t>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -1393,7 +1393,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>99</v>
